--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail5 Features.xlsx
@@ -4116,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,29 +4127,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4170,115 +4168,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4295,72 +4283,66 @@
         <v>3.680943790746115e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.05909176955857648</v>
+        <v>1.923903399018108e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4454157841476927</v>
+        <v>5.540349017489306e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.923903399018108e-06</v>
+        <v>0.03707189608050238</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.540349017489306e-06</v>
+        <v>0.306725432401538</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03707189608050238</v>
+        <v>0.09526778742072886</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.306725432401538</v>
+        <v>1.934058128061314</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09526778742072886</v>
+        <v>2.152953636653853</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.941013656602853</v>
+        <v>4.912562605564517</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.152953636653853</v>
+        <v>1.287748168413302e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.912562605564517</v>
+        <v>352767692.6528157</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.287748168413302e-15</v>
+        <v>3.451830785610903e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>352767692.6528157</v>
+        <v>160.2538787405798</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.451830785610903e-07</v>
+        <v>0.0001888462265206758</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>160.2538787405798</v>
+        <v>14.63398031330138</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001888462265206758</v>
+        <v>0.9946066815312121</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>14.63398031330138</v>
+        <v>0.04044205767378499</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.9946066815312121</v>
+        <v>3.676227281365738</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.04044205767378499</v>
+        <v>0.9645934609840754</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.676227281365738</v>
+        <v>1.104273976236197</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9645934609840754</v>
+        <v>175</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.104273976236197</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>3.819256068122698</v>
       </c>
     </row>
@@ -4375,72 +4357,66 @@
         <v>3.497239123239121e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3550332128886912</v>
+        <v>1.355594836190938e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.061458489382169</v>
+        <v>5.549187775157036e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.355594836190938e-06</v>
+        <v>0.01268589341317488</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.549187775157036e-06</v>
+        <v>0.2477785617762773</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01268589341317488</v>
+        <v>0.06141469071246949</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2477785617762773</v>
+        <v>1.939050551590399</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06141469071246949</v>
+        <v>2.024061023873488</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.94180318771996</v>
+        <v>5.099443813335556</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.024061023873488</v>
+        <v>1.091193840712101e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.099443813335556</v>
+        <v>409956608.7232038</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.091193840712101e-15</v>
+        <v>2.973787170995949e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>409956608.7232038</v>
+        <v>183.390861077143</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.973787170995949e-07</v>
+        <v>0.0001994575970287892</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>183.390861077143</v>
+        <v>14.94911175648913</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001994575970287892</v>
+        <v>0.9300860722967054</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>14.94911175648913</v>
+        <v>0.04457397444649831</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.9300860722967054</v>
+        <v>3.246080366102257</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04457397444649831</v>
+        <v>0.9645773183074339</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.246080366102257</v>
+        <v>1.149702695804011</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9645773183074339</v>
+        <v>175</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.149702695804011</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.056977620510401</v>
       </c>
     </row>
@@ -4455,72 +4431,66 @@
         <v>3.484927280671788e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3725371103501154</v>
+        <v>1.117431205807899e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.080459470638775</v>
+        <v>5.549778435757937e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.117431205807899e-06</v>
+        <v>-0.008186033023145757</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.549778435757937e-06</v>
+        <v>0.181594507713468</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.008186033023145757</v>
+        <v>0.03295864505161435</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.181594507713468</v>
+        <v>1.931989926055677</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03295864505161435</v>
+        <v>2.141605777183499</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.937185070397293</v>
+        <v>4.214539357874635</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.141605777183499</v>
+        <v>9.439942745452369e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.214539357874635</v>
+        <v>461615140.4409764</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.439942745452369e-16</v>
+        <v>2.630146579453666e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>461615140.4409764</v>
+        <v>201.154359734035</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.630146579453666e-07</v>
+        <v>0.0001818223336783559</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>201.154359734035</v>
+        <v>13.03203651817771</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001818223336783559</v>
+        <v>1.022846070395496</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.03203651817771</v>
+        <v>0.03087960981985084</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.022846070395496</v>
+        <v>3.147265976930361</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03087960981985084</v>
+        <v>0.9634413125565732</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.147265976930361</v>
+        <v>1.139775081515082</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9634413125565732</v>
+        <v>175</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.139775081515082</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.814260675779209</v>
       </c>
     </row>
@@ -4535,72 +4505,66 @@
         <v>3.52131527094057e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3829878224367422</v>
+        <v>1.117431205807899e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.104914888884527</v>
+        <v>5.544160549694843e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.117431205807899e-06</v>
+        <v>-0.02266402943084454</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.544160549694843e-06</v>
+        <v>0.1283829074247396</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02266402943084454</v>
+        <v>0.01695352332923124</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1283829074247396</v>
+        <v>1.925331127055566</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01695352332923124</v>
+        <v>2.133445168727274</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.930973077097955</v>
+        <v>4.118215526880732</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.133445168727274</v>
+        <v>1.161767616646119e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.118215526880732</v>
+        <v>377390458.3581538</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.161767616646119e-15</v>
+        <v>3.212200156345367e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>377390458.3581538</v>
+        <v>165.4630776013678</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.212200156345367e-07</v>
+        <v>0.0001355123507442243</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>165.4630776013678</v>
+        <v>11.31058516696678</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001355123507442243</v>
+        <v>1.087007848342351</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.31058516696678</v>
+        <v>0.01733600516152065</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.087007848342351</v>
+        <v>3.394809174121584</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01733600516152065</v>
+        <v>0.962505179029073</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.394809174121584</v>
+        <v>1.234827820639203</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.962505179029073</v>
+        <v>175</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.234827820639203</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.422716254472525</v>
       </c>
     </row>
@@ -4615,72 +4579,66 @@
         <v>3.540959819565001e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4352401762266397</v>
+        <v>1.117431205807899e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.085959415094085</v>
+        <v>5.534349364805244e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.117431205807899e-06</v>
+        <v>-0.03217179701032977</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.534349364805244e-06</v>
+        <v>0.09107074017157019</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03217179701032977</v>
+        <v>0.009308489263277342</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09107074017157019</v>
+        <v>1.868453152131599</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009308489263277342</v>
+        <v>1.87370761322638</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.837628023434352</v>
+        <v>6.712847679446295</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.87370761322638</v>
+        <v>2.445555083510575e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.712847679446295</v>
+        <v>178502697.591631</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.445555083510575e-15</v>
+        <v>6.691286789266919e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>178502697.591631</v>
+        <v>77.92324264526782</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.691286789266919e-07</v>
+        <v>0.0001530488728549128</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>77.92324264526782</v>
+        <v>9.421954018781712</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001530488728549128</v>
+        <v>1.847567674350869</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.421954018781712</v>
+        <v>0.01358664088298222</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.847567674350869</v>
+        <v>3.556617212574379</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01358664088298222</v>
+        <v>0.9608760044951226</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.556617212574379</v>
+        <v>1.524370975122273</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9608760044951226</v>
+        <v>126</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.524370975122273</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.8573429696940003</v>
       </c>
     </row>
@@ -4695,72 +4653,66 @@
         <v>3.523079205300842e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5054099212396744</v>
+        <v>1.117431205807899e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.004532537092458</v>
+        <v>5.521671255721093e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.117431205807899e-06</v>
+        <v>-0.03916695553496798</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.521671255721093e-06</v>
+        <v>0.06663689143833913</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03916695553496798</v>
+        <v>0.005966794612095806</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06663689143833913</v>
+        <v>1.864108296234942</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.005966794612095806</v>
+        <v>1.75910429387797</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.824262755446184</v>
+        <v>4.610940094223194</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.75910429387797</v>
+        <v>7.157320326171343e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.610940094223194</v>
+        <v>61039192.56329937</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.157320326171343e-15</v>
+        <v>1.950092635404314e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>61039192.56329937</v>
+        <v>26.66662260278804</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.950092635404314e-06</v>
+        <v>0.0002638596449799767</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>26.66662260278804</v>
+        <v>10.55942705839784</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002638596449799767</v>
+        <v>1.860155725625757</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.55942705839784</v>
+        <v>0.02942074615239156</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.860155725625757</v>
+        <v>2.907896978660784</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02942074615239156</v>
+        <v>0.9602484533689504</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.907896978660784</v>
+        <v>1.642991636246891</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9602484533689504</v>
+        <v>78</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.642991636246891</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3465610424764363</v>
       </c>
     </row>
@@ -5137,7 +5089,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.603336254033761</v>
+        <v>1.566311601096677</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.884742165347503</v>
@@ -5226,7 +5178,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.612732638551969</v>
+        <v>1.579267963637772</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.778684060196779</v>
@@ -5315,7 +5267,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617964857098502</v>
+        <v>1.579122818594073</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.415335073619081</v>
@@ -5404,7 +5356,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.631485016841075</v>
+        <v>1.586181139032045</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.012375245647405</v>
@@ -5493,7 +5445,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.622549833086594</v>
+        <v>1.572156765819773</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.866501011446003</v>
@@ -5582,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.62210910260674</v>
+        <v>1.569514556204081</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.895582376415081</v>
@@ -5671,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626577284924817</v>
+        <v>1.576375031817263</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.917440648007846</v>
@@ -5760,7 +5712,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.640088484296062</v>
+        <v>1.592195271798815</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.061612725424272</v>
@@ -5849,7 +5801,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644390655469065</v>
+        <v>1.588154456783144</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.500356484593646</v>
@@ -5938,7 +5890,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.624859669876056</v>
+        <v>1.577254835320311</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.636838024986369</v>
@@ -6027,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.623593094615139</v>
+        <v>1.574734611039722</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.777062972000115</v>
@@ -6116,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.638989435127256</v>
+        <v>1.586141374710341</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.638784282506427</v>
@@ -6205,7 +6157,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.626139236948581</v>
+        <v>1.579268402400062</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.46098853770835</v>
@@ -6294,7 +6246,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.631728217573791</v>
+        <v>1.581730259128335</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.754501434014736</v>
@@ -6383,7 +6335,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.605493648422344</v>
+        <v>1.560182758159651</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.69482828867824</v>
@@ -6472,7 +6424,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608391800715146</v>
+        <v>1.566383641268084</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.616330287825205</v>
@@ -6561,7 +6513,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.608183868299681</v>
+        <v>1.55978714665857</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.623990587699989</v>
@@ -6650,7 +6602,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.60851264119061</v>
+        <v>1.56701162896394</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.767385593289033</v>
@@ -6739,7 +6691,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.613963126267137</v>
+        <v>1.571328225162518</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.704295166046399</v>
@@ -6828,7 +6780,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.619460274740919</v>
+        <v>1.577195752430884</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.700947385381645</v>
@@ -6917,7 +6869,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.621551864107153</v>
+        <v>1.586308373765486</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.630361626714682</v>
@@ -7006,7 +6958,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.62459889269134</v>
+        <v>1.590643462783058</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.689520636645409</v>
@@ -7095,7 +7047,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.62461084288567</v>
+        <v>1.592617488250612</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.558288207157695</v>
@@ -7184,7 +7136,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.624671295567369</v>
+        <v>1.593993698450339</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.542653366316369</v>
@@ -7273,7 +7225,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.636391433877167</v>
+        <v>1.605368829877011</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.094780489810056</v>
@@ -7362,7 +7314,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624855611402862</v>
+        <v>1.599605220396214</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.010431292153251</v>
@@ -7451,7 +7403,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.62482424766974</v>
+        <v>1.60315751247271</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.91321168706509</v>
@@ -7540,7 +7492,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624929643126906</v>
+        <v>1.607274628411013</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.929446096863436</v>
@@ -7629,7 +7581,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.63034144927352</v>
+        <v>1.61656425513085</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.927992553943592</v>
@@ -7718,7 +7670,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.641298011919418</v>
+        <v>1.624301335310886</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.895269398977821</v>
@@ -7807,7 +7759,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634421959726907</v>
+        <v>1.616061265288353</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.645350938387417</v>
@@ -7896,7 +7848,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.647526810435796</v>
+        <v>1.633260082809077</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.636175510573088</v>
@@ -7985,7 +7937,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648373318498571</v>
+        <v>1.634707612493716</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.687952697140425</v>
@@ -8074,7 +8026,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.630655520840143</v>
+        <v>1.62817188419036</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.678025700251415</v>
@@ -8163,7 +8115,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.634101810602365</v>
+        <v>1.627850136497124</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.738544914727298</v>
@@ -8252,7 +8204,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.638439564336583</v>
+        <v>1.630172166908408</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.900410612629616</v>
@@ -8341,7 +8293,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.647196677994551</v>
+        <v>1.636574055327092</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.924147237488335</v>
@@ -8430,7 +8382,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.651162272425512</v>
+        <v>1.643357109637318</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.852938913363939</v>
@@ -8519,7 +8471,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.668081105397301</v>
+        <v>1.660051345464512</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.84368036356069</v>
@@ -8608,7 +8560,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.676192966443541</v>
+        <v>1.666540949447001</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.709238854632269</v>
@@ -8697,7 +8649,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.695334146146315</v>
+        <v>1.679758785772019</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.757996780379356</v>
@@ -8786,7 +8738,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.70772928072282</v>
+        <v>1.684357338724872</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.996117472666921</v>
@@ -8875,7 +8827,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.724917915162967</v>
+        <v>1.701237411219527</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.871875592747749</v>
@@ -8964,7 +8916,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.731357505265697</v>
+        <v>1.704279032502216</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.772934825476388</v>
@@ -9053,7 +9005,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.733412410275879</v>
+        <v>1.706236488443983</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.016740579371729</v>
@@ -9142,7 +9094,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.732199880071481</v>
+        <v>1.709039534203068</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.328955144655051</v>
@@ -9231,7 +9183,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.73698765467861</v>
+        <v>1.710441573297631</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.336889176304405</v>
@@ -9320,7 +9272,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.753508940887777</v>
+        <v>1.720426272970852</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.88017741071005</v>
@@ -9409,7 +9361,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.76472568778306</v>
+        <v>1.726249702279761</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.535789520797951</v>
@@ -9498,7 +9450,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.764921421160962</v>
+        <v>1.727456335975106</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.820827777606131</v>
@@ -9587,7 +9539,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.756130513305055</v>
+        <v>1.714383965215628</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.763397146972304</v>
@@ -9873,7 +9825,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.779613817405943</v>
+        <v>1.741727726540806</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.992724035237652</v>
@@ -9962,7 +9914,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.791553243091614</v>
+        <v>1.751822790999798</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.941375267675446</v>
@@ -10051,7 +10003,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.790707755220117</v>
+        <v>1.754300283468822</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.618763522969643</v>
@@ -10140,7 +10092,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.779023060529364</v>
+        <v>1.735967818659001</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.848399296101232</v>
@@ -10229,7 +10181,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.774272393769048</v>
+        <v>1.720649436785909</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.777592824270592</v>
@@ -10318,7 +10270,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.76499501493512</v>
+        <v>1.71136188819298</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.403900506540529</v>
@@ -10407,7 +10359,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.756544525789644</v>
+        <v>1.707130926535171</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.060756465061699</v>
@@ -10496,7 +10448,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.750608869998032</v>
+        <v>1.708334871694094</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.307747748401881</v>
@@ -10585,7 +10537,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.709758584400764</v>
+        <v>1.656897890044355</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.548642325171169</v>
@@ -10674,7 +10626,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.673969489908988</v>
+        <v>1.637141748682438</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.572969531142212</v>
@@ -10763,7 +10715,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.672149374371244</v>
+        <v>1.629596332079327</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.622400237818429</v>
@@ -10852,7 +10804,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.670870710594185</v>
+        <v>1.631983996717558</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.627333029969185</v>
@@ -10941,7 +10893,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.650525847393277</v>
+        <v>1.617721873072925</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.425581476247187</v>
@@ -11030,7 +10982,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65953156382276</v>
+        <v>1.620974047488718</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.509814877967069</v>
@@ -11119,7 +11071,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.643505827830853</v>
+        <v>1.602969432949388</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.585165527442908</v>
@@ -11208,7 +11160,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.639360100995643</v>
+        <v>1.60377743152161</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.544879273679557</v>
@@ -11297,7 +11249,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.634799190281071</v>
+        <v>1.598681884336464</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.617696574837316</v>
@@ -11386,7 +11338,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.617737906511878</v>
+        <v>1.585256820090867</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.484405402904692</v>
@@ -11475,7 +11427,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.615938093037283</v>
+        <v>1.579866842192506</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.601244489133405</v>
@@ -11564,7 +11516,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613733431121702</v>
+        <v>1.586262121147084</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.544047430794654</v>
@@ -11653,7 +11605,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.616788738765801</v>
+        <v>1.589398026038166</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.590845758784265</v>
@@ -11742,7 +11694,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.615469843586899</v>
+        <v>1.586517983368233</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.569214491098354</v>
@@ -11831,7 +11783,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.61788394700055</v>
+        <v>1.586444058479452</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.429806915161607</v>
@@ -11920,7 +11872,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.619949840792643</v>
+        <v>1.582843392191697</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.330831656531157</v>
@@ -12009,7 +11961,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618210711487121</v>
+        <v>1.581191634969237</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.72118145734377</v>
@@ -12098,7 +12050,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.584959185123078</v>
+        <v>1.556787068965941</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.695386225196649</v>
@@ -12187,7 +12139,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589246060653681</v>
+        <v>1.560056145237626</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.772989788209159</v>
@@ -12276,7 +12228,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.582237156028264</v>
+        <v>1.559477662556221</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.585359474506006</v>
@@ -12365,7 +12317,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.576104699444899</v>
+        <v>1.558555922004017</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.728498061168649</v>
@@ -12454,7 +12406,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565311596979899</v>
+        <v>1.55009561645723</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.727354462351151</v>
@@ -12543,7 +12495,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.54816354715511</v>
+        <v>1.536095800317289</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.371237097314455</v>
@@ -12632,7 +12584,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552031885890473</v>
+        <v>1.540156437512094</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.341036677649931</v>
@@ -12721,7 +12673,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.555324010187697</v>
+        <v>1.540419703777026</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.371149936127294</v>
@@ -12810,7 +12762,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.529802347141803</v>
+        <v>1.525803620809688</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.372586395943719</v>
@@ -12899,7 +12851,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.526104231868598</v>
+        <v>1.51965341036098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.380432798086836</v>
@@ -12988,7 +12940,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.520068348528522</v>
+        <v>1.515082935100595</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.413707165521802</v>
@@ -13077,7 +13029,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.522778471273021</v>
+        <v>1.515963224554656</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.412014432297592</v>
@@ -13166,7 +13118,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.530132413407854</v>
+        <v>1.524475164309312</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.36360714407144</v>
@@ -13255,7 +13207,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.557165722905818</v>
+        <v>1.556569378349865</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.434277521148478</v>
@@ -13344,7 +13296,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.566171734370227</v>
+        <v>1.564462314268558</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.282901856485871</v>
@@ -13433,7 +13385,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590451515334292</v>
+        <v>1.58159810651226</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.375651520728613</v>
@@ -13522,7 +13474,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.580983097821405</v>
+        <v>1.573099530151353</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.476881228759954</v>
@@ -13611,7 +13563,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.60309332422112</v>
+        <v>1.591086937600932</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.417785525373866</v>
@@ -13700,7 +13652,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.608259212863733</v>
+        <v>1.596442908363064</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.375118956938405</v>
@@ -13789,7 +13741,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.641501208022964</v>
+        <v>1.619410433321411</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.563226679395158</v>
@@ -13878,7 +13830,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.652015119701761</v>
+        <v>1.625325683666018</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.662749242007285</v>
@@ -13967,7 +13919,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.643831264350965</v>
+        <v>1.622031951102086</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.621225099227501</v>
@@ -14056,7 +14008,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.659799692257858</v>
+        <v>1.629730601208431</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.393355290601691</v>
@@ -14145,7 +14097,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.704288438506142</v>
+        <v>1.666128561848765</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.307516398938445</v>
@@ -14234,7 +14186,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.686347974144222</v>
+        <v>1.646460001181108</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.246948782239185</v>
@@ -14323,7 +14275,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.670547155485854</v>
+        <v>1.626221656778681</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.287408750296421</v>
@@ -14609,7 +14561,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.781535178707331</v>
+        <v>1.724518904360293</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.815713525745169</v>
@@ -14698,7 +14650,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.776859352137282</v>
+        <v>1.730002810808203</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.138399860398843</v>
@@ -14787,7 +14739,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.778455787108289</v>
+        <v>1.723465852671725</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.52225724927766</v>
@@ -14876,7 +14828,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.754761632148294</v>
+        <v>1.693569948205237</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.79284101733918</v>
@@ -14965,7 +14917,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.736042781390414</v>
+        <v>1.670188591774923</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.13966023154886</v>
@@ -15054,7 +15006,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.719656098102073</v>
+        <v>1.653570847038307</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.851197339156276</v>
@@ -15143,7 +15095,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.705087694011819</v>
+        <v>1.640217027316392</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.715957625689468</v>
@@ -15232,7 +15184,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.713257215738138</v>
+        <v>1.649817395525478</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.269503690570836</v>
@@ -15321,7 +15273,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.686814583564918</v>
+        <v>1.619549861723836</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.837868553207157</v>
@@ -15410,7 +15362,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.648168626406039</v>
+        <v>1.599050204107945</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.717166199562094</v>
@@ -15499,7 +15451,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.637856922557102</v>
+        <v>1.588265975651906</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.809021566756118</v>
@@ -15588,7 +15540,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.642648652330663</v>
+        <v>1.59617594260322</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.725936040507573</v>
@@ -15677,7 +15629,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.634247310502068</v>
+        <v>1.595961333863073</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.556727984988576</v>
@@ -15766,7 +15718,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.623848626898122</v>
+        <v>1.584403845286442</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.761841012587794</v>
@@ -15855,7 +15807,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.612152193244714</v>
+        <v>1.575208329109523</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.844942875252414</v>
@@ -15944,7 +15896,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608691038504801</v>
+        <v>1.575661993983366</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.849308936249327</v>
@@ -16033,7 +15985,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.611109675604993</v>
+        <v>1.573690523353679</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.780023796322187</v>
@@ -16122,7 +16074,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.602177051648731</v>
+        <v>1.558296923201514</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.864373910028101</v>
@@ -16211,7 +16163,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.60450891368367</v>
+        <v>1.559603349449606</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.852924056897367</v>
@@ -16300,7 +16252,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.610812646389552</v>
+        <v>1.56979717216189</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.860921983272873</v>
@@ -16389,7 +16341,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614287389410483</v>
+        <v>1.562749504146318</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.741469444768939</v>
@@ -16478,7 +16430,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.610656072019485</v>
+        <v>1.551638442145206</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.777521216428377</v>
@@ -16567,7 +16519,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606632983497517</v>
+        <v>1.544822536141454</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.569732228236767</v>
@@ -16656,7 +16608,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.600868930487498</v>
+        <v>1.538200824439681</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.457492811240471</v>
@@ -16745,7 +16697,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608514735331044</v>
+        <v>1.541906983181419</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.844719216360992</v>
@@ -16834,7 +16786,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.584870377571605</v>
+        <v>1.526042143887371</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.930589820283731</v>
@@ -16923,7 +16875,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.576323353763358</v>
+        <v>1.517763406981739</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.894841720585513</v>
@@ -17012,7 +16964,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.574918777137711</v>
+        <v>1.517988689649749</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.909545152856074</v>
@@ -17101,7 +17053,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.580617273287136</v>
+        <v>1.523684202873822</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.827488510357548</v>
@@ -17190,7 +17142,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.571193215578337</v>
+        <v>1.517727884551463</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.677679810050018</v>
@@ -17279,7 +17231,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.56543810338447</v>
+        <v>1.515179913876036</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.606654772525206</v>
@@ -17368,7 +17320,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577961831737212</v>
+        <v>1.532442011700319</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.612425506739116</v>
@@ -17457,7 +17409,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.58402120562909</v>
+        <v>1.54307362439113</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.513797356006631</v>
@@ -17546,7 +17498,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.568688000448935</v>
+        <v>1.534677508097263</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.567935479729898</v>
@@ -17635,7 +17587,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580173536967226</v>
+        <v>1.544322508694379</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.614152035639414</v>
@@ -17724,7 +17676,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.582338752756096</v>
+        <v>1.557833680702788</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.793356540425194</v>
@@ -17813,7 +17765,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588746006999774</v>
+        <v>1.570688030077937</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.791077982753329</v>
@@ -17902,7 +17854,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.606098725312813</v>
+        <v>1.591975688940878</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.641271005398186</v>
@@ -17991,7 +17943,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.632761762683205</v>
+        <v>1.617330662262566</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.619798181918083</v>
@@ -18080,7 +18032,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642502912455633</v>
+        <v>1.629140370945154</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.583720679413001</v>
@@ -18169,7 +18121,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.666703159281748</v>
+        <v>1.645021684352813</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.449026306089957</v>
@@ -18258,7 +18210,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.678702590211992</v>
+        <v>1.659067545403923</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.821714341680545</v>
@@ -18347,7 +18299,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.701096735346834</v>
+        <v>1.679254819387748</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.772318547211944</v>
@@ -18436,7 +18388,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.700883812104372</v>
+        <v>1.683997727885989</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.557577478951195</v>
@@ -18525,7 +18477,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.730199190538091</v>
+        <v>1.700560003501137</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.672922452944622</v>
@@ -18614,7 +18566,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.734552471478132</v>
+        <v>1.699126071051558</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.932669692886064</v>
@@ -18703,7 +18655,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.725197843920634</v>
+        <v>1.687309649849729</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.011386010647111</v>
@@ -18792,7 +18744,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.7316802485633</v>
+        <v>1.69112130718444</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.666939150437947</v>
@@ -18881,7 +18833,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.76470554001681</v>
+        <v>1.716821577888795</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.892239416343985</v>
@@ -18970,7 +18922,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.743491353792242</v>
+        <v>1.69955207402308</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.476834829340616</v>
@@ -19059,7 +19011,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.738028882174503</v>
+        <v>1.689999902293307</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.442638441989033</v>
@@ -19345,7 +19297,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.678413791677793</v>
+        <v>1.57964595504224</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.704970945020641</v>
@@ -19434,7 +19386,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.68328593760469</v>
+        <v>1.587513313683538</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.613219451672351</v>
@@ -19523,7 +19475,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.685256785152303</v>
+        <v>1.586160103482293</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.63615329089561</v>
@@ -19612,7 +19564,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.675391357193324</v>
+        <v>1.572026446405214</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.410123489716126</v>
@@ -19701,7 +19653,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.677623314770077</v>
+        <v>1.568068540831389</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.194888674393562</v>
@@ -19790,7 +19742,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.681809484841323</v>
+        <v>1.568783304859238</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.700007594652201</v>
@@ -19879,7 +19831,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.667029031593168</v>
+        <v>1.551907736448354</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.923945028706633</v>
@@ -19968,7 +19920,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.660131896347905</v>
+        <v>1.554501470452834</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.977473080693108</v>
@@ -20057,7 +20009,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647805097976689</v>
+        <v>1.545947535772838</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.704965620789956</v>
@@ -20146,7 +20098,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.623791702901023</v>
+        <v>1.538479376922239</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.788649982601534</v>
@@ -20235,7 +20187,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.623675006672032</v>
+        <v>1.535049883643659</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.807185100639469</v>
@@ -20324,7 +20276,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.636686889696121</v>
+        <v>1.549602326863229</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.706623655316025</v>
@@ -20413,7 +20365,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.627247116552885</v>
+        <v>1.547285045256482</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.628928393314724</v>
@@ -20502,7 +20454,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.632581649021434</v>
+        <v>1.551231183067624</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.817509823887562</v>
@@ -20591,7 +20543,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.609600037522612</v>
+        <v>1.527545570655783</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.856548222904947</v>
@@ -20680,7 +20632,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606721041023878</v>
+        <v>1.527442523156585</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.887543195519059</v>
@@ -20769,7 +20721,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600944726741609</v>
+        <v>1.525580800200346</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.85931246456455</v>
@@ -20858,7 +20810,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.578333878396844</v>
+        <v>1.499409905703553</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.843362658179172</v>
@@ -20947,7 +20899,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57556298798934</v>
+        <v>1.497919376837372</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.821482980380441</v>
@@ -21036,7 +20988,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.569117509081374</v>
+        <v>1.495051323796971</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.847025019572758</v>
@@ -21125,7 +21077,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56908806434291</v>
+        <v>1.491639149938419</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.861105889505651</v>
@@ -21214,7 +21166,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.578462097359288</v>
+        <v>1.499449345992305</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.60073270086044</v>
@@ -21303,7 +21255,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56486099183255</v>
+        <v>1.481892250026239</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.609927111854672</v>
@@ -21392,7 +21344,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.574281594700159</v>
+        <v>1.484588789318694</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.492851141330394</v>
@@ -21481,7 +21433,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.578537436477922</v>
+        <v>1.48600005667668</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.879264476171592</v>
@@ -21570,7 +21522,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.557270851609397</v>
+        <v>1.477906920555815</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.83062972786228</v>
@@ -21659,7 +21611,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.547715635152622</v>
+        <v>1.467497790209843</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.786283264109975</v>
@@ -21748,7 +21700,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.547001624891908</v>
+        <v>1.472968701136623</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.794713548175219</v>
@@ -21837,7 +21789,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54277873110303</v>
+        <v>1.471678385919206</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.813962131422546</v>
@@ -21926,7 +21878,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.544425096394665</v>
+        <v>1.476167384130824</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.712866009635901</v>
@@ -22015,7 +21967,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.522541066176514</v>
+        <v>1.45740224977948</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.628529617172156</v>
@@ -22104,7 +22056,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.535030764701981</v>
+        <v>1.462406123146841</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.576944139588563</v>
@@ -22193,7 +22145,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.54895281795863</v>
+        <v>1.481399801288863</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.494739316317841</v>
@@ -22282,7 +22234,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534824885653188</v>
+        <v>1.473680131973335</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.52734468422046</v>
@@ -22371,7 +22323,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.541229881246732</v>
+        <v>1.477259958772534</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.56697646012873</v>
@@ -22460,7 +22412,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.54607505466368</v>
+        <v>1.488028428603339</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.557472884198176</v>
@@ -22549,7 +22501,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.54183202781323</v>
+        <v>1.491649647512156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.716348244778269</v>
@@ -22638,7 +22590,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.556803219192654</v>
+        <v>1.509168350072684</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.64816565708306</v>
@@ -22727,7 +22679,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.57895362908164</v>
+        <v>1.532562979133795</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.444589184234191</v>
@@ -22816,7 +22768,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.589770680108446</v>
+        <v>1.543448534924406</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.465119460733006</v>
@@ -22905,7 +22857,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.608660671594423</v>
+        <v>1.553888685267498</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.527258511085059</v>
@@ -22994,7 +22946,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.608451845312425</v>
+        <v>1.555293129147291</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.512408392872061</v>
@@ -23083,7 +23035,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.628330871281543</v>
+        <v>1.570526475750684</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.699271894067379</v>
@@ -23172,7 +23124,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.6324685844331</v>
+        <v>1.577626840836045</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.518723358718226</v>
@@ -23261,7 +23213,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.661188890622714</v>
+        <v>1.596116469745217</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.66218512231378</v>
@@ -23350,7 +23302,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.683702375149157</v>
+        <v>1.608960989160087</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.956645093772315</v>
@@ -23439,7 +23391,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.672701432996784</v>
+        <v>1.602809327777738</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.944441690389362</v>
@@ -23528,7 +23480,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.670858746547135</v>
+        <v>1.601055262319985</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.764957231008679</v>
@@ -23617,7 +23569,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.682659387668596</v>
+        <v>1.60822513531231</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.493012723179162</v>
@@ -23706,7 +23658,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.66773480480797</v>
+        <v>1.597162311574113</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.476752560320584</v>
@@ -23795,7 +23747,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.665299917079776</v>
+        <v>1.588198925814177</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.284579157885449</v>
@@ -24081,7 +24033,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.52181598626974</v>
+        <v>1.491358363799659</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.989187469748254</v>
@@ -24170,7 +24122,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.519998934051138</v>
+        <v>1.492615101915131</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.969603075513595</v>
@@ -24259,7 +24211,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.526465492496533</v>
+        <v>1.50407718051909</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.91161815320676</v>
@@ -24348,7 +24300,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.516272548494572</v>
+        <v>1.494460559728978</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.009231664545354</v>
@@ -24437,7 +24389,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53737281026957</v>
+        <v>1.50631604768213</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.012128412734508</v>
@@ -24526,7 +24478,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542406850103251</v>
+        <v>1.512273565347515</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.968423755648014</v>
@@ -24615,7 +24567,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.606129254586757</v>
+        <v>1.56053464768364</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.568152580776635</v>
@@ -24704,7 +24656,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600180845567228</v>
+        <v>1.574029126378627</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.723863712133184</v>
@@ -24793,7 +24745,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.443282008753134</v>
+        <v>1.373648218837416</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.551973126592738</v>
@@ -24882,7 +24834,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.304305284745473</v>
+        <v>1.303477160215788</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.566614305103611</v>
@@ -24971,7 +24923,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.295930091132213</v>
+        <v>1.295093909869794</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.565970651505454</v>
@@ -25060,7 +25012,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.295531188869484</v>
+        <v>1.29680146827048</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.557941372704214</v>
@@ -25149,7 +25101,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.252971790340227</v>
+        <v>1.24921887582615</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.617565306916013</v>
@@ -25238,7 +25190,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.235692499881008</v>
+        <v>1.236515871810897</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.614512740851199</v>
@@ -25327,7 +25279,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.212618743176564</v>
+        <v>1.206270530483031</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.665343230328636</v>
@@ -25416,7 +25368,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.203253448225405</v>
+        <v>1.199617592568999</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.662780404804353</v>
@@ -25505,7 +25457,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.207401902764</v>
+        <v>1.196667007416531</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.686923854649109</v>
@@ -25594,7 +25546,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.195794166033517</v>
+        <v>1.185795423796375</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.709521510096019</v>
@@ -25683,7 +25635,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.196039403812167</v>
+        <v>1.185143180660563</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.709858792696386</v>
@@ -25772,7 +25724,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.193414791916321</v>
+        <v>1.182677578642341</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.705281665993847</v>
@@ -25861,7 +25813,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.195748564920412</v>
+        <v>1.18443891189078</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.701797534644717</v>
@@ -25950,7 +25902,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.195511790387952</v>
+        <v>1.185014457660996</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.70025626338128</v>
@@ -26039,7 +25991,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.19576525005211</v>
+        <v>1.182441908148109</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.646798045005652</v>
@@ -26128,7 +26080,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.206085732236224</v>
+        <v>1.191849612739152</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.598631903189853</v>
@@ -26217,7 +26169,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.221838570309391</v>
+        <v>1.195074396844274</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.791323495038905</v>
@@ -26306,7 +26258,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.181273919429707</v>
+        <v>1.164276674326186</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.832024541873928</v>
@@ -26395,7 +26347,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.175323050705262</v>
+        <v>1.157016452003711</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.838022137959156</v>
@@ -26484,7 +26436,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.16936805828532</v>
+        <v>1.152131469537709</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.782236885547038</v>
@@ -26573,7 +26525,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.167727923100497</v>
+        <v>1.149989574277345</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.860752949191902</v>
@@ -26662,7 +26614,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.174949568729486</v>
+        <v>1.15186037486033</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.842031183763194</v>
@@ -26751,7 +26703,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.174165780455082</v>
+        <v>1.151445595482928</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.747336818948334</v>
@@ -26840,7 +26792,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.176072030063093</v>
+        <v>1.155391348734049</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.713532019881465</v>
@@ -26929,7 +26881,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.175203252670263</v>
+        <v>1.15072125993904</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.726503205025868</v>
@@ -27018,7 +26970,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.155897292693869</v>
+        <v>1.135513155217445</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.769503619500421</v>
@@ -27107,7 +27059,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.155259195041718</v>
+        <v>1.135601240785925</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.782126317727269</v>
@@ -27196,7 +27148,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.155857623801959</v>
+        <v>1.136848711142699</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.782746156373361</v>
@@ -27285,7 +27237,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.157666301770624</v>
+        <v>1.13887552151345</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.786080321237098</v>
@@ -27374,7 +27326,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.164292905310912</v>
+        <v>1.145636556150684</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.810301080277661</v>
@@ -27463,7 +27415,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.178119422721047</v>
+        <v>1.159894559914898</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.710804710535477</v>
@@ -27552,7 +27504,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.188069292049235</v>
+        <v>1.169841123632665</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.655150647938611</v>
@@ -27641,7 +27593,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.222701026670925</v>
+        <v>1.19976695949955</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.676878019748316</v>
@@ -27730,7 +27682,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.226459670318057</v>
+        <v>1.202003734700173</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.715757041835939</v>
@@ -27819,7 +27771,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.247574485182028</v>
+        <v>1.225462801348942</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.653504470585309</v>
@@ -27908,7 +27860,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.253491791377325</v>
+        <v>1.232186177795909</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.650112529758576</v>
@@ -27997,7 +27949,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.310081558448056</v>
+        <v>1.287049736752945</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.642552865512062</v>
@@ -28086,7 +28038,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.319668436551172</v>
+        <v>1.30419119320393</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.741075976206458</v>
@@ -28175,7 +28127,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.327046695847864</v>
+        <v>1.308561024166253</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.701454531355592</v>
@@ -28264,7 +28216,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.365639309277288</v>
+        <v>1.341790381345904</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.666634680937734</v>
@@ -28353,7 +28305,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.484360563329542</v>
+        <v>1.450718676783407</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.780668868663895</v>
@@ -28442,7 +28394,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.440982288809451</v>
+        <v>1.39386270018657</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.50735907562847</v>
@@ -28531,7 +28483,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.426388288788455</v>
+        <v>1.380620699772738</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.509896435663082</v>
@@ -28817,7 +28769,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.504739727583999</v>
+        <v>1.455653626870936</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.759016458880607</v>
@@ -28906,7 +28858,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.516267987143516</v>
+        <v>1.468188357404471</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.717432994797385</v>
@@ -28995,7 +28947,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.5338841159836</v>
+        <v>1.474886513642878</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.298354554209765</v>
@@ -29084,7 +29036,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.554976909069903</v>
+        <v>1.488341638298046</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.853196765657749</v>
@@ -29173,7 +29125,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.567777633436966</v>
+        <v>1.492965993733199</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.399238825547249</v>
@@ -29262,7 +29214,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.554365389081207</v>
+        <v>1.477914363195067</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.515340664470425</v>
@@ -29351,7 +29303,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.554776974422506</v>
+        <v>1.475434170637505</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.739995724421873</v>
@@ -29440,7 +29392,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.548122020658206</v>
+        <v>1.48385385584152</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.612453494927623</v>
@@ -29529,7 +29481,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.535501037167764</v>
+        <v>1.477413329281843</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.492599649038237</v>
@@ -29618,7 +29570,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.508897031629039</v>
+        <v>1.458355211139947</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.342804663432797</v>
@@ -29707,7 +29659,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.505294043720619</v>
+        <v>1.454630606088216</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.342131613837887</v>
@@ -29796,7 +29748,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513291852354493</v>
+        <v>1.466500519526688</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.267482801685792</v>
@@ -29885,7 +29837,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.501579090941759</v>
+        <v>1.457213323099547</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.4173351969458</v>
@@ -29974,7 +29926,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.504240547536953</v>
+        <v>1.450236828461914</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.299196960189731</v>
@@ -30063,7 +30015,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.484973139510777</v>
+        <v>1.426777124245263</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.327910721129491</v>
@@ -30152,7 +30104,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.489096435194836</v>
+        <v>1.432999723899917</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.353234678742829</v>
@@ -30241,7 +30193,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.480590783988355</v>
+        <v>1.424083624081791</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.421437559921559</v>
@@ -30330,7 +30282,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.465484651755714</v>
+        <v>1.413673321608439</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.282182750324025</v>
@@ -30419,7 +30371,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.461654249889821</v>
+        <v>1.412968650463469</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.378779211527356</v>
@@ -30508,7 +30460,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.46538084861932</v>
+        <v>1.413144221097196</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.461173393800972</v>
@@ -30597,7 +30549,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.470787138832888</v>
+        <v>1.417454937052661</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.469169174234449</v>
@@ -30686,7 +30638,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.477112597900699</v>
+        <v>1.422607442245765</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.444672626578392</v>
@@ -30775,7 +30727,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485044281110402</v>
+        <v>1.423168767587024</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.394977400872602</v>
@@ -30864,7 +30816,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.497667752784318</v>
+        <v>1.428948309007837</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.199493070016028</v>
@@ -30953,7 +30905,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.515297143841409</v>
+        <v>1.439670827424339</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.841165840717406</v>
@@ -31042,7 +30994,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.494853877230677</v>
+        <v>1.429825344970931</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.784598018689764</v>
@@ -31131,7 +31083,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.48692212860338</v>
+        <v>1.419409533991565</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.519703396577974</v>
@@ -31220,7 +31172,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.490340449465734</v>
+        <v>1.429633621903657</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.657741553176315</v>
@@ -31309,7 +31261,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.490798289634155</v>
+        <v>1.436699823343779</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.772400113284851</v>
@@ -31398,7 +31350,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.497984144052252</v>
+        <v>1.446215386289394</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.737079658143781</v>
@@ -31487,7 +31439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.485995337337839</v>
+        <v>1.435476050549732</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.528083694935028</v>
@@ -31576,7 +31528,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.498753578878995</v>
+        <v>1.449917258374758</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.441877015488176</v>
@@ -31665,7 +31617,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.507616551421673</v>
+        <v>1.45632255156658</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.584659816395304</v>
@@ -31754,7 +31706,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.493696337677785</v>
+        <v>1.449243582553366</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.574142105416284</v>
@@ -31843,7 +31795,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.507141526997819</v>
+        <v>1.460628997031531</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.457787809792618</v>
@@ -31932,7 +31884,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.498467276389701</v>
+        <v>1.459310168749156</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.469397101459873</v>
@@ -32021,7 +31973,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.498173727080224</v>
+        <v>1.461926149749914</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.552904714024688</v>
@@ -32110,7 +32062,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.515993296146894</v>
+        <v>1.484069570923236</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.503709831279259</v>
@@ -32199,7 +32151,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.528056000237798</v>
+        <v>1.499659067985332</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.452358598668829</v>
@@ -32288,7 +32240,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542098675145636</v>
+        <v>1.516081707218165</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.377075378470787</v>
@@ -32377,7 +32329,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.57066110174515</v>
+        <v>1.534645635590424</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.411074496394896</v>
@@ -32466,7 +32418,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581679851321466</v>
+        <v>1.54841914358044</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.548619167816708</v>
@@ -32555,7 +32507,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594641591261913</v>
+        <v>1.556463152095495</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.583283279387247</v>
@@ -32644,7 +32596,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.599074446313901</v>
+        <v>1.559283033075842</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.456599325148297</v>
@@ -32733,7 +32685,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607790180282901</v>
+        <v>1.559709019731991</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.71203204705989</v>
@@ -32822,7 +32774,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.617933438408976</v>
+        <v>1.562425249160857</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.923358676450709</v>
@@ -32911,7 +32863,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.615675797126522</v>
+        <v>1.55607641060972</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.722658614546404</v>
@@ -33000,7 +32952,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.625769650241596</v>
+        <v>1.566598983972396</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.640045688344177</v>
@@ -33089,7 +33041,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63569560420548</v>
+        <v>1.565709043989576</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.251147976425468</v>
@@ -33178,7 +33130,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.627048594255741</v>
+        <v>1.567578654858775</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.868841233179052</v>
@@ -33267,7 +33219,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.627036620708881</v>
+        <v>1.55901300950422</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.476757692061669</v>
